--- a/Linux/01-Linux-基础内容/linux.xlsx
+++ b/Linux/01-Linux-基础内容/linux.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/DSWorkspace/600读书写作/_1_Reading&amp;Writing/20220311Linux&amp;Python/Linux/01-Linux-基础内容/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F03B088-8208-D143-ACE3-E1BC87C16AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90213F5-EEA6-554E-B8BE-2200B8451C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="500" windowWidth="33980" windowHeight="28300" activeTab="1" xr2:uid="{5AE4491B-1D83-1143-BF39-EF45F09C8023}"/>
+    <workbookView xWindow="17760" yWindow="520" windowWidth="31860" windowHeight="28300" activeTab="1" xr2:uid="{5AE4491B-1D83-1143-BF39-EF45F09C8023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$1:$F$72</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="459">
   <si>
     <t>命令</t>
   </si>
@@ -5702,50 +5705,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Which [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>] [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>ifconfig</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5766,81 +5725,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>磁盘</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>系统/日历</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文本</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>文件/链接</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -5854,6 +5738,264 @@
   </si>
   <si>
     <t>rpm</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd [参数]</t>
+  </si>
+  <si>
+    <t>whoami [参数]</t>
+  </si>
+  <si>
+    <t>clear [参数]</t>
+  </si>
+  <si>
+    <t>Which [参数] [文件]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>su命令用于切换当前用户身份到指定用户或者以指定用户的身份执行命令或程序</t>
+  </si>
+  <si>
+    <t>su [选项] [用户名]</t>
+  </si>
+  <si>
+    <t>sudo 允许一个已授权用户以超级用户或者其它用户的角色运行一个命令</t>
+  </si>
+  <si>
+    <t>sudo [参数]</t>
+  </si>
+  <si>
+    <t>mount [参数]</t>
+  </si>
+  <si>
+    <t>系统/设备</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>umount [参数]</t>
+  </si>
+  <si>
+    <t>用来从指定的URL下载文件</t>
+  </si>
+  <si>
+    <t>wget [参数]</t>
+  </si>
+  <si>
+    <t>系统/日历/日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd [参数] [目录名]</t>
+  </si>
+  <si>
+    <t>ls [选项] [文件]</t>
+  </si>
+  <si>
+    <t>ll[选项] [文件]</t>
+  </si>
+  <si>
+    <t>rm [参数] [文件]</t>
+  </si>
+  <si>
+    <t>touch [参数] [文件]</t>
+  </si>
+  <si>
+    <t>mv [参数]</t>
+  </si>
+  <si>
+    <t>cp [参数] [文件]</t>
+  </si>
+  <si>
+    <t>文件/文档</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来定位命令的二进制程序、源代码文件和man手册页等相关文件的路径</t>
+  </si>
+  <si>
+    <t>whereis [参数] [命令名]</t>
+  </si>
+  <si>
+    <t>改变文件或目录权限的命令，但是只有文件的属主和超级用户root才能执行这个命令。有两种模式，一种是采用权限字母和操作符表达式；另一种是采用数字</t>
+  </si>
+  <si>
+    <t> chmod [参数] [文件]</t>
+  </si>
+  <si>
+    <t>用于配置和显示Linux内核中网络接口的网络参数.用ifconfig命令配置的网卡信息，在网卡重启后机器重启后，配置就不存在</t>
+  </si>
+  <si>
+    <t>ifconfig [参数]</t>
+  </si>
+  <si>
+    <t>ping [参数] [目标主机]</t>
+  </si>
+  <si>
+    <t>openssh套件中的客户端连接工具</t>
+  </si>
+  <si>
+    <t>ssh [参数] [远程主机]</t>
+  </si>
+  <si>
+    <t>在终端设备上输出字符串或变量提取后的值。在变量前加上$符号的方式提取出变量的值，例如：$PATH</t>
+  </si>
+  <si>
+    <t>echo [参数] [字符串]</t>
+  </si>
+  <si>
+    <t>man命令会列出一份完整的说明。 其内容包括命令语法、各选项的意义及相关命令</t>
+  </si>
+  <si>
+    <t>man [命令]</t>
+  </si>
+  <si>
+    <t>Linux的邮件客户端命令，可以利用这个命令给其他用户发送邮件</t>
+  </si>
+  <si>
+    <t> mkdir [参数] [目录]</t>
+  </si>
+  <si>
+    <t> ln [参数] [源文件或目录] [目标文件或目录]</t>
+  </si>
+  <si>
+    <t>显示文件或文件系统的详细信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>yum命令来自于英文词组”YellowdogUpdater,Modified“的缩写，其功能是用于在Linux系统中基于RPM技术进行软件包的管理工作，实现从指定服务器自动下载、更新、删除软件包的工作</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm命令来自于英文词组”RedHat Package Manager“的缩写，中文译为红帽软件包管理器，其功能是用于在Linux系统下对软件包进行安装、卸载、查询、验证、升级等工作</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>该命令被用来提交和管理用户的需要周期性执行的任务。Linux下的任务调度分为两类，系统任务调度和用户任务调度；
+系统任务调度：系统周期性所要执行的工作，比如写缓存数据到硬盘、日志清理等。/etc/crontab文件是系统任务调度的配置文件。用户任务调度：用户定期要执行的工作，比如用户数据备份、定时邮件提醒等。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmdir</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于删除空目录文件</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>locate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速查找文件或目录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于查看文件尾部内容，例如默认会在终端界面上显示出指定文件的末尾十行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于分页显示文件内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于分页显示文本文件内容</t>
+  </si>
+  <si>
+    <t>用于显示和设置系统的主机名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出当前的shell或退出终端</t>
+  </si>
+  <si>
+    <t>让用户退出系统，其功能和login指令相互对应</t>
+  </si>
+  <si>
+    <t>重新启动计算机</t>
+  </si>
+  <si>
+    <t>用于关闭服务器的系统</t>
+  </si>
+  <si>
+    <t>用于查看系统主机名、内核及硬件架构等信息。</t>
+  </si>
+  <si>
+    <t>显示系统上磁盘空间的使用量情况</t>
+  </si>
+  <si>
+    <t>查看文件或目录的大小</t>
+  </si>
+  <si>
+    <t>用于基于SSH协议远程拷贝文件</t>
+  </si>
+  <si>
+    <t>根据给定的路径和条件查找相关文件或目录</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于压缩和解压缩文件，能够制作出Linux系统中常见的.tar、.tar.gz、.tar.bz2等格式的压缩包文件</t>
+  </si>
+  <si>
+    <t>显示文件开头的内容，默认为前10行</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文件反向输出</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于查看文件内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来显示当前日历</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个新的工作组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定的工作组</t>
+  </si>
+  <si>
+    <t>用于创建并设置用户信息</t>
+  </si>
+  <si>
+    <t>修改用户的密码值</t>
+  </si>
+  <si>
+    <t>删除指定的用户及与该用户相关的文件</t>
+  </si>
+  <si>
+    <t>显示与管理历史命令记录</t>
+  </si>
+  <si>
+    <t>显示当前系统的进程状态</t>
+  </si>
+  <si>
+    <t>实时显示系统运行状态，包含处理器、内存、服务、进程等重要资源信息</t>
+  </si>
+  <si>
+    <t>杀死（结束）进程</t>
+  </si>
+  <si>
+    <t>显示或设置系统日期与时间信息</t>
+  </si>
+  <si>
+    <t>用于全面搜索的正则表达式，并将结果输出</t>
+  </si>
+  <si>
+    <t>向指定登录用户终端上发送信息</t>
+  </si>
+  <si>
+    <t>进程查看器</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5861,7 +6003,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5973,10 +6115,24 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="15"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <color rgb="FF383838"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6019,7 +6175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6083,38 +6239,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10248,19 +10398,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B1EE81-84F2-714C-BABB-3F4FFB9E7960}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="99.5" customWidth="1"/>
+    <col min="3" max="3" width="96.33203125" style="7" customWidth="1"/>
     <col min="4" max="4" width="48.6640625" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="11"/>
@@ -10290,950 +10440,1024 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" ht="25">
-      <c r="B3" s="21" t="s">
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="20">
+      <c r="B3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="22" t="s">
+      <c r="D3" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20">
+      <c r="B4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F4" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25">
-      <c r="B4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="22" t="s">
+    <row r="5" spans="1:6" ht="20">
+      <c r="B5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6" ht="20">
+      <c r="B6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" ht="20">
+      <c r="B7" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" ht="20">
+      <c r="B8" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:6" ht="20">
+      <c r="B9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6" ht="20">
+      <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="1:6" ht="20">
+      <c r="B11" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25">
-      <c r="B5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="22" t="s">
+    <row r="12" spans="1:6" ht="20">
+      <c r="B12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:6" ht="25">
-      <c r="B6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="22" t="s">
+      <c r="F12" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20">
+      <c r="B13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" ht="25">
-      <c r="B7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="22" t="s">
+      <c r="F13" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20">
+      <c r="B14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:6" ht="25">
-      <c r="B8" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="22" t="s">
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:6" ht="20">
+      <c r="B15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" ht="20">
+      <c r="B16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="2:6" ht="20">
+      <c r="B17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="2:6" ht="20">
+      <c r="B18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="2:6" ht="20">
+      <c r="B19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="2:6" ht="20">
+      <c r="B20" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="2:6" ht="20">
+      <c r="B21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="2:6" ht="20">
+      <c r="B22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="2:6" ht="20">
+      <c r="B23" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="2:6" ht="20">
+      <c r="B24" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="2:6" ht="20">
+      <c r="B25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="20">
+      <c r="B26" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="20">
+      <c r="B27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="20">
+      <c r="B28" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:6" ht="25">
-      <c r="B9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="22" t="s">
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="2:6" ht="20">
+      <c r="B29" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="2:6" ht="20">
+      <c r="B30" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="2:6" ht="20">
+      <c r="B31" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="2:6" ht="20">
+      <c r="B32" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="20">
+      <c r="B33" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="20">
+      <c r="B34" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="20">
+      <c r="B35" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="20">
+      <c r="B36" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="20">
+      <c r="B37" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="40">
+      <c r="B38" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="20">
+      <c r="B39" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="20">
+      <c r="B40" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="20">
+      <c r="B41" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="20">
+      <c r="B42" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="2:6" ht="20">
+      <c r="B43" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="2:6" ht="20">
+      <c r="B44" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="2:6" ht="20">
+      <c r="B45" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="2:6" ht="40">
+      <c r="B46" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="20">
+      <c r="B47" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:6" ht="25">
-      <c r="B10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="22" t="s">
+      <c r="F47" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="20">
+      <c r="B48" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E48" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:6" ht="25">
-      <c r="B11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="F48" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="20">
+      <c r="B49" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="40">
+      <c r="B50" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="40">
+      <c r="B51" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="40">
+      <c r="B52" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="20">
+      <c r="B53" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="20">
+      <c r="B54" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" s="26"/>
+      <c r="E54" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="2:6" ht="20">
+      <c r="B55" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="20">
+      <c r="B56" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="2:6" ht="40">
+      <c r="B57" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="20">
+      <c r="B58" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F58" s="27"/>
+    </row>
+    <row r="59" spans="2:6" ht="20">
+      <c r="B59" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F59" s="27"/>
+    </row>
+    <row r="60" spans="2:6" ht="40">
+      <c r="B60" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="20">
+      <c r="B61" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="D61" s="26"/>
+      <c r="E61" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="F61" s="27"/>
+    </row>
+    <row r="62" spans="2:6" ht="20">
+      <c r="B62" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="F62" s="27"/>
+    </row>
+    <row r="63" spans="2:6" ht="20">
+      <c r="B63" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="F63" s="27"/>
+    </row>
+    <row r="64" spans="2:6" ht="20">
+      <c r="B64" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="F64" s="27"/>
+    </row>
+    <row r="65" spans="2:6" ht="20">
+      <c r="B65" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" spans="2:6" ht="20">
+      <c r="B66" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="F66" s="27"/>
+    </row>
+    <row r="67" spans="2:6" ht="20">
+      <c r="B67" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F67" s="27"/>
+    </row>
+    <row r="68" spans="2:6" ht="20">
+      <c r="B68" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="27"/>
+    </row>
+    <row r="69" spans="2:6" ht="20">
+      <c r="B69" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="27"/>
+    </row>
+    <row r="70" spans="2:6" ht="60">
+      <c r="B70" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="F70" s="27"/>
+    </row>
+    <row r="71" spans="2:6" ht="100">
+      <c r="B71" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="25">
-      <c r="B12" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="25">
-      <c r="B13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="25">
-      <c r="B14" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" ht="25">
-      <c r="B15" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:6" ht="25">
-      <c r="B16" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="2:6" ht="25">
-      <c r="B17" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="2:6" ht="25">
-      <c r="B18" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="2:6" ht="25">
-      <c r="B19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="2:6" ht="25">
-      <c r="B20" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="2:6" ht="25">
-      <c r="B21" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="2:6" ht="25">
-      <c r="B22" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="2:6" ht="25">
-      <c r="B23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="2:6" ht="25">
-      <c r="B24" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="2:6" ht="25">
-      <c r="B25" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" spans="2:6" ht="25">
-      <c r="B26" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="25">
-      <c r="B27" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="25">
-      <c r="B28" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="25">
-      <c r="B29" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="2:6" ht="25">
-      <c r="B30" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="2:6" ht="25">
-      <c r="B31" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="2:6" ht="25">
-      <c r="B32" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="2:6" ht="25">
-      <c r="B33" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="25">
-      <c r="B34" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="25">
-      <c r="B35" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="25">
-      <c r="B36" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="25">
-      <c r="B37" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="25">
-      <c r="B38" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="48">
-      <c r="B39" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="25">
-      <c r="B40" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="25">
-      <c r="B41" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="25">
-      <c r="B42" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="25">
-      <c r="B43" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="22" t="s">
+      <c r="F71" s="27"/>
+    </row>
+    <row r="72" spans="2:6" ht="60">
+      <c r="B72" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="2:6" ht="25">
-      <c r="B44" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" spans="2:6" ht="25">
-      <c r="B45" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" spans="2:6" ht="25">
-      <c r="B46" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F46" s="28"/>
-    </row>
-    <row r="47" spans="2:6" ht="25">
-      <c r="B47" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="25">
-      <c r="B48" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="25">
-      <c r="B49" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" ht="25">
-      <c r="B50" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="25">
-      <c r="B51" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="E51" s="22" t="s">
+      <c r="C72" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="F51" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="48">
-      <c r="B52" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" ht="48">
-      <c r="B53" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="25">
-      <c r="B54" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="25">
-      <c r="B55" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F55" s="28"/>
-    </row>
-    <row r="56" spans="2:6" ht="25">
-      <c r="B56" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="25">
-      <c r="B57" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F57" s="28"/>
-    </row>
-    <row r="58" spans="2:6" ht="48">
-      <c r="B58" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" ht="25">
-      <c r="B59" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F59" s="28"/>
-    </row>
-    <row r="60" spans="2:6" ht="25">
-      <c r="B60" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F60" s="28"/>
-    </row>
-    <row r="61" spans="2:6" ht="25">
-      <c r="B61" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="E61" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="25">
-      <c r="B62" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="F62" s="28"/>
-    </row>
-    <row r="63" spans="2:6" ht="25">
-      <c r="B63" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="F63" s="28"/>
-    </row>
-    <row r="64" spans="2:6" ht="25">
-      <c r="B64" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="F64" s="28"/>
-    </row>
-    <row r="65" spans="2:6" ht="25">
-      <c r="B65" s="21" t="s">
-        <v>359</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="F65" s="28"/>
-    </row>
-    <row r="66" spans="2:6" ht="25">
-      <c r="B66" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F66" s="28"/>
-    </row>
-    <row r="67" spans="2:6" ht="25">
-      <c r="B67" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="F67" s="28"/>
-    </row>
-    <row r="68" spans="2:6" ht="25">
-      <c r="B68" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" s="28"/>
-    </row>
-    <row r="69" spans="2:6" ht="25">
-      <c r="B69" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="2:6" ht="25">
-      <c r="B70" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="28"/>
-    </row>
-    <row r="71" spans="2:6" ht="25">
-      <c r="B71" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="31"/>
-    </row>
-    <row r="72" spans="2:6" ht="25">
-      <c r="B72" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="31"/>
-    </row>
-    <row r="73" spans="2:6" ht="25">
-      <c r="B73" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="31"/>
+      <c r="F72" s="27"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:F72" xr:uid="{B8B1EE81-84F2-714C-BABB-3F4FFB9E7960}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>

--- a/Linux/01-Linux-基础内容/linux.xlsx
+++ b/Linux/01-Linux-基础内容/linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/DSWorkspace/600读书写作/_1_Reading&amp;Writing/20220311Linux&amp;Python/Linux/01-Linux-基础内容/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90213F5-EEA6-554E-B8BE-2200B8451C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEAB19D-A467-9E44-99CD-B26543E22F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="520" windowWidth="31860" windowHeight="28300" activeTab="1" xr2:uid="{5AE4491B-1D83-1143-BF39-EF45F09C8023}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25000" windowHeight="28300" activeTab="1" xr2:uid="{5AE4491B-1D83-1143-BF39-EF45F09C8023}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6182,15 +6182,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6203,17 +6194,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6232,9 +6214,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6265,6 +6244,27 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6592,7 +6592,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="2" max="2" width="29" style="14" customWidth="1"/>
+    <col min="2" max="2" width="29" style="8" customWidth="1"/>
     <col min="3" max="3" width="49.83203125" customWidth="1"/>
     <col min="4" max="4" width="55.83203125" customWidth="1"/>
     <col min="5" max="5" width="77.83203125" customWidth="1"/>
@@ -6602,3626 +6602,3769 @@
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="18" customFormat="1" ht="28">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="2:9" s="12" customFormat="1" ht="28">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="24">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="24">
-      <c r="B3" s="12"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="5"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" ht="48">
-      <c r="B4" s="12"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" ht="25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="24">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="26"/>
+      <c r="G6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
+      <c r="H6" s="26"/>
+      <c r="I6" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="24">
-      <c r="B7" s="12"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="2:9" ht="25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" ht="25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" ht="25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9" ht="25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:9" ht="25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" ht="25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:9" ht="24">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="24">
-      <c r="B15" s="12"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="2:9" ht="48">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="24">
-      <c r="B17" s="12"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="5"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="2:9" ht="24">
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="2:9" ht="24">
-      <c r="B19" s="12"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" ht="24">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="26"/>
+      <c r="G20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="5" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="24">
-      <c r="B21" s="12"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="5"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="2:9" ht="48">
-      <c r="B22" s="12"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="5"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="2:9" ht="24">
-      <c r="B23" s="12"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="5"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="2:9" ht="24">
-      <c r="B24" s="12"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="5"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="2:9" ht="24">
-      <c r="B25" s="12"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="5"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:9" ht="24">
-      <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="5"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="2:9" ht="72">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="2:9" ht="48">
-      <c r="B28" s="12"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="2:9" ht="24">
-      <c r="B29" s="12"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="2:9" ht="48">
-      <c r="B30" s="12"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="2:9" ht="48">
-      <c r="B31" s="12"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="2:9" ht="24">
-      <c r="B32" s="12"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="2:9" ht="25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="4" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:9" ht="25">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:9" ht="25">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9" ht="25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="4" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="2:9" ht="25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="4" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="2:9" ht="25">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="4" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="2:9" ht="25">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="4" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="2:9" ht="25">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="4" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="2:9" ht="25">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="2:9" ht="25">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="2:9" ht="24">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="8" t="s">
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="2"/>
+      <c r="I43" s="26"/>
     </row>
     <row r="44" spans="2:9" ht="20">
-      <c r="B44" s="12"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="3" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I44" s="2"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="2:9" ht="20">
-      <c r="B45" s="12"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="3" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I45" s="2"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="2:9" ht="24">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="24">
-      <c r="B47" s="12"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="3" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="5"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="2:9" ht="24">
-      <c r="B48" s="12"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="3" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="5"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="2:9" ht="24">
-      <c r="B49" s="12"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="3" t="s">
+      <c r="B49" s="23"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="5"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" spans="2:9" ht="24">
-      <c r="B50" s="12"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="3" t="s">
+      <c r="B50" s="23"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="5"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="25"/>
     </row>
     <row r="51" spans="2:9" ht="24">
-      <c r="B51" s="12"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="3" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="5"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" spans="2:9" ht="24">
-      <c r="B52" s="12"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="3" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="5"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="25"/>
     </row>
     <row r="53" spans="2:9" ht="24">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="5" t="s">
+      <c r="F53" s="26"/>
+      <c r="G53" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="5" t="s">
+      <c r="H53" s="26"/>
+      <c r="I53" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="24">
-      <c r="B54" s="12"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="3" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="5"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="25"/>
     </row>
     <row r="55" spans="2:9" ht="24">
-      <c r="B55" s="12"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="3" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="5"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" spans="2:9" ht="24">
-      <c r="B56" s="12"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="3" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="5"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" spans="2:9" ht="24">
-      <c r="B57" s="12"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="3" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="5"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" spans="2:9" ht="24">
-      <c r="B58" s="12"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="3" t="s">
+      <c r="B58" s="23"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="5"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" spans="2:9" ht="24">
-      <c r="B59" s="12"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="3" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="5"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" spans="2:9" ht="24">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="5" t="s">
+      <c r="F60" s="26"/>
+      <c r="G60" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="24">
-      <c r="B61" s="12"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="3" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="5"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" spans="2:9" ht="24">
-      <c r="B62" s="12"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="3" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="5"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="25"/>
     </row>
     <row r="63" spans="2:9" ht="20">
-      <c r="B63" s="12"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="3" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="5"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="25"/>
     </row>
     <row r="64" spans="2:9" ht="25">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="4" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
     </row>
     <row r="65" spans="2:9" ht="25">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="4" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
     </row>
     <row r="66" spans="2:9" ht="25">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="4" t="s">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I66" s="6"/>
+      <c r="I66" s="3"/>
     </row>
     <row r="67" spans="2:9" ht="25">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="4" t="s">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="2:9" ht="48">
-      <c r="B68" s="13" t="s">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="2:9" ht="25">
+      <c r="B68" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="4" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="4" t="s">
+      <c r="H68" s="3"/>
+      <c r="I68" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="48">
-      <c r="B69" s="13" t="s">
+    <row r="69" spans="2:9" ht="25">
+      <c r="B69" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="4" t="s">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="4" t="s">
+      <c r="H69" s="3"/>
+      <c r="I69" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="48">
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="H70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="71" spans="2:9" ht="72">
-      <c r="B71" s="12"/>
-      <c r="C71" s="4" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="3" t="s">
+      <c r="D71" s="24"/>
+      <c r="E71" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="4" t="s">
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="I71" s="5"/>
+      <c r="I71" s="25"/>
     </row>
     <row r="72" spans="2:9" ht="48">
-      <c r="B72" s="12"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="3" t="s">
+      <c r="B72" s="23"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="5"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="25"/>
     </row>
     <row r="73" spans="2:9" ht="24">
-      <c r="B73" s="12"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="3" t="s">
+      <c r="B73" s="23"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="5"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="25"/>
     </row>
     <row r="74" spans="2:9" ht="24">
-      <c r="B74" s="12"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="3" t="s">
+      <c r="B74" s="23"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="5"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="25"/>
     </row>
     <row r="75" spans="2:9" ht="24">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="5" t="s">
+      <c r="F75" s="26"/>
+      <c r="G75" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="5" t="s">
+      <c r="H75" s="26"/>
+      <c r="I75" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="24">
-      <c r="B76" s="12"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="3" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="5"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="25"/>
     </row>
     <row r="77" spans="2:9" ht="24">
-      <c r="B77" s="12"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="3" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="5"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="25"/>
     </row>
     <row r="78" spans="2:9" ht="24">
-      <c r="B78" s="12"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="3" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="5"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="25"/>
     </row>
     <row r="79" spans="2:9" ht="24">
-      <c r="B79" s="12"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="3" t="s">
+      <c r="B79" s="23"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="5"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="25"/>
     </row>
     <row r="80" spans="2:9" ht="24">
-      <c r="B80" s="12"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="3" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="5"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="25"/>
     </row>
     <row r="81" spans="2:9" ht="24">
-      <c r="B81" s="12"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="3" t="s">
+      <c r="B81" s="23"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="5"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="25"/>
     </row>
     <row r="82" spans="2:9" ht="24">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H82" s="2"/>
-      <c r="I82" s="5" t="s">
+      <c r="H82" s="26"/>
+      <c r="I82" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="83" spans="2:9" ht="24">
-      <c r="B83" s="12"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="3" t="s">
+      <c r="B83" s="23"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="5"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="25"/>
     </row>
     <row r="84" spans="2:9" ht="24">
-      <c r="B84" s="12"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="3" t="s">
+      <c r="B84" s="23"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="5"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="25"/>
     </row>
     <row r="85" spans="2:9" ht="24">
-      <c r="B85" s="12"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="3" t="s">
+      <c r="B85" s="23"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="5"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="25"/>
     </row>
     <row r="86" spans="2:9" ht="24">
-      <c r="B86" s="12"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="3" t="s">
+      <c r="B86" s="23"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="5"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="25"/>
     </row>
     <row r="87" spans="2:9" ht="24">
-      <c r="B87" s="12"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="3" t="s">
+      <c r="B87" s="23"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="5"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="25"/>
     </row>
     <row r="88" spans="2:9" ht="24">
-      <c r="B88" s="12"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="3" t="s">
+      <c r="B88" s="23"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="5"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="25"/>
     </row>
     <row r="89" spans="2:9" ht="24">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H89" s="2"/>
-      <c r="I89" s="5" t="s">
+      <c r="H89" s="26"/>
+      <c r="I89" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="24">
-      <c r="B90" s="12"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="3" t="s">
+      <c r="B90" s="23"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="5"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="25"/>
     </row>
     <row r="91" spans="2:9" ht="24">
-      <c r="B91" s="12"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="3" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="5"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="25"/>
     </row>
     <row r="92" spans="2:9" ht="24">
-      <c r="B92" s="12"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="3" t="s">
+      <c r="B92" s="23"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="5"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="25"/>
     </row>
     <row r="93" spans="2:9" ht="24">
-      <c r="B93" s="12"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="3" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="5"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="25"/>
     </row>
     <row r="94" spans="2:9" ht="20">
-      <c r="B94" s="12"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="3" t="s">
+      <c r="B94" s="23"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="5"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="25"/>
     </row>
     <row r="95" spans="2:9" ht="24">
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="5" t="s">
+      <c r="H95" s="26"/>
+      <c r="I95" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="2:9" ht="24">
-      <c r="B96" s="12"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="3" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="5"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="25"/>
     </row>
     <row r="97" spans="2:9" ht="24">
-      <c r="B97" s="12"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="3" t="s">
+      <c r="B97" s="23"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="5"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="25"/>
     </row>
     <row r="98" spans="2:9" ht="24">
-      <c r="B98" s="12"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="3" t="s">
+      <c r="B98" s="23"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="5"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="25"/>
     </row>
     <row r="99" spans="2:9" ht="24">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="H99" s="2"/>
-      <c r="I99" s="5" t="s">
+      <c r="H99" s="26"/>
+      <c r="I99" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="24">
-      <c r="B100" s="12"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="3" t="s">
+      <c r="B100" s="23"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="5"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="25"/>
     </row>
     <row r="101" spans="2:9" ht="24">
-      <c r="B101" s="12"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="3" t="s">
+      <c r="B101" s="23"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="5"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="25"/>
     </row>
     <row r="102" spans="2:9" ht="24">
-      <c r="B102" s="12"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="3" t="s">
+      <c r="B102" s="23"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F102" s="6"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="5"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="25"/>
     </row>
     <row r="103" spans="2:9" ht="24">
-      <c r="B103" s="12"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="3" t="s">
+      <c r="B103" s="23"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F103" s="6"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="5"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="25"/>
     </row>
     <row r="104" spans="2:9" ht="24">
-      <c r="B104" s="12"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="3" t="s">
+      <c r="B104" s="23"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F104" s="6"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="5"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="25"/>
     </row>
     <row r="105" spans="2:9" ht="24">
-      <c r="B105" s="12"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="3" t="s">
+      <c r="B105" s="23"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F105" s="6"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="5"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="26"/>
+      <c r="I105" s="25"/>
     </row>
     <row r="106" spans="2:9" ht="24">
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F106" s="3" t="s">
+      <c r="F106" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="H106" s="2"/>
-      <c r="I106" s="5" t="s">
+      <c r="H106" s="26"/>
+      <c r="I106" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="24">
-      <c r="B107" s="12"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="4" t="s">
+      <c r="B107" s="23"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F107" s="3" t="s">
+      <c r="F107" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="5"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="25"/>
     </row>
     <row r="108" spans="2:9" ht="20">
-      <c r="B108" s="12"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="3" t="s">
+      <c r="B108" s="23"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F108" s="7"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="5"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="25"/>
     </row>
     <row r="109" spans="2:9" ht="24">
-      <c r="B109" s="12"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="4" t="s">
+      <c r="B109" s="23"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="5"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="25"/>
     </row>
     <row r="110" spans="2:9" ht="20">
-      <c r="B110" s="12"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="3" t="s">
+      <c r="B110" s="23"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="5"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="26"/>
+      <c r="I110" s="25"/>
     </row>
     <row r="111" spans="2:9" ht="24">
-      <c r="B111" s="12"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="4" t="s">
+      <c r="B111" s="23"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="5"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="26"/>
+      <c r="I111" s="25"/>
     </row>
     <row r="112" spans="2:9" ht="20">
-      <c r="B112" s="12"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="3" t="s">
+      <c r="B112" s="23"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F112" s="6"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="5"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="25"/>
     </row>
     <row r="113" spans="2:9" ht="24">
-      <c r="B113" s="12"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="4" t="s">
+      <c r="B113" s="23"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F113" s="6"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="5"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="25"/>
     </row>
     <row r="114" spans="2:9" ht="20">
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="H114" s="2"/>
-      <c r="I114" s="5" t="s">
+      <c r="H114" s="26"/>
+      <c r="I114" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="2:9" ht="24">
-      <c r="B115" s="12"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="4" t="s">
+      <c r="B115" s="23"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F115" s="7"/>
-      <c r="G115" s="5"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="5"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="25"/>
     </row>
     <row r="116" spans="2:9" ht="24">
-      <c r="B116" s="12"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="3" t="s">
+      <c r="B116" s="23"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="5"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="26"/>
+      <c r="I116" s="25"/>
     </row>
     <row r="117" spans="2:9" ht="24">
-      <c r="B117" s="12"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="4" t="s">
+      <c r="B117" s="23"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F117" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="5"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="25"/>
     </row>
     <row r="118" spans="2:9" ht="20">
-      <c r="B118" s="12"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="3" t="s">
+      <c r="B118" s="23"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F118" s="6"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="5"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="26"/>
+      <c r="I118" s="25"/>
     </row>
     <row r="119" spans="2:9" ht="24">
-      <c r="B119" s="12"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="4" t="s">
+      <c r="B119" s="23"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F119" s="6"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="5"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="25"/>
     </row>
     <row r="120" spans="2:9" ht="20">
-      <c r="B120" s="12"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="3" t="s">
+      <c r="B120" s="23"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F120" s="6"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="5"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="26"/>
+      <c r="I120" s="25"/>
     </row>
     <row r="121" spans="2:9" ht="24">
-      <c r="B121" s="12"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="4" t="s">
+      <c r="B121" s="23"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="5"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="25"/>
     </row>
     <row r="122" spans="2:9" ht="20">
-      <c r="B122" s="12"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="3" t="s">
+      <c r="B122" s="23"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F122" s="6"/>
-      <c r="G122" s="5"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="5"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="25"/>
     </row>
     <row r="123" spans="2:9" ht="48">
-      <c r="B123" s="12"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="4" t="s">
+      <c r="B123" s="23"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F123" s="6"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="5"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="26"/>
+      <c r="I123" s="25"/>
     </row>
     <row r="124" spans="2:9" ht="20">
-      <c r="B124" s="12"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="3" t="s">
+      <c r="B124" s="23"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F124" s="6"/>
-      <c r="G124" s="5"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="5"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="26"/>
+      <c r="I124" s="25"/>
     </row>
     <row r="125" spans="2:9" ht="24">
-      <c r="B125" s="12"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="4" t="s">
+      <c r="B125" s="23"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F125" s="6"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="5"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="25"/>
     </row>
     <row r="126" spans="2:9" ht="20">
-      <c r="B126" s="12"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="3" t="s">
+      <c r="B126" s="23"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="5"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="26"/>
+      <c r="I126" s="25"/>
     </row>
     <row r="127" spans="2:9" ht="24">
-      <c r="B127" s="12"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="4" t="s">
+      <c r="B127" s="23"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F127" s="6"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="5"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="25"/>
     </row>
     <row r="128" spans="2:9" ht="20">
-      <c r="B128" s="12"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="3" t="s">
+      <c r="B128" s="23"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="5"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="25"/>
     </row>
     <row r="129" spans="2:9" ht="24">
-      <c r="B129" s="12"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="4" t="s">
+      <c r="B129" s="23"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F129" s="6"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="5"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="25"/>
     </row>
     <row r="130" spans="2:9" ht="20">
-      <c r="B130" s="12"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="3" t="s">
+      <c r="B130" s="23"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F130" s="6"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="5"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="25"/>
     </row>
     <row r="131" spans="2:9" ht="24">
-      <c r="B131" s="12"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="4" t="s">
+      <c r="B131" s="23"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="5"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="25"/>
     </row>
     <row r="132" spans="2:9" ht="20">
-      <c r="B132" s="12"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="3" t="s">
+      <c r="B132" s="23"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F132" s="6"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="5"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="25"/>
     </row>
     <row r="133" spans="2:9" ht="24">
-      <c r="B133" s="12"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="4" t="s">
+      <c r="B133" s="23"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="5"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="5"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="26"/>
+      <c r="I133" s="25"/>
     </row>
     <row r="134" spans="2:9" ht="25">
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="4" t="s">
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
     </row>
     <row r="135" spans="2:9" ht="25">
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="4" t="s">
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
     </row>
     <row r="136" spans="2:9" ht="25">
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="4" t="s">
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
     </row>
     <row r="137" spans="2:9" ht="25">
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="4" t="s">
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
     </row>
     <row r="138" spans="2:9" ht="25">
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="4" t="s">
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H138" s="6"/>
-      <c r="I138" s="4" t="s">
+      <c r="H138" s="3"/>
+      <c r="I138" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="139" spans="2:9" ht="25">
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="6"/>
-      <c r="G139" s="4" t="s">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H139" s="6"/>
-      <c r="I139" s="4" t="s">
+      <c r="H139" s="3"/>
+      <c r="I139" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="140" spans="2:9" ht="20">
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F140" s="2"/>
-      <c r="G140" s="5" t="s">
+      <c r="F140" s="26"/>
+      <c r="G140" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="H140" s="2"/>
-      <c r="I140" s="5" t="s">
+      <c r="H140" s="26"/>
+      <c r="I140" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="141" spans="2:9" ht="24">
-      <c r="B141" s="12"/>
-      <c r="C141" s="5"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="4" t="s">
+      <c r="B141" s="23"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F141" s="2"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="5"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="26"/>
+      <c r="I141" s="25"/>
     </row>
     <row r="142" spans="2:9" ht="20">
-      <c r="B142" s="12"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="3" t="s">
+      <c r="B142" s="23"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F142" s="2"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="5"/>
+      <c r="F142" s="26"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="26"/>
+      <c r="I142" s="25"/>
     </row>
     <row r="143" spans="2:9" ht="24">
-      <c r="B143" s="12"/>
-      <c r="C143" s="5"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="4" t="s">
+      <c r="B143" s="23"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F143" s="2"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="5"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="25"/>
     </row>
     <row r="144" spans="2:9" ht="20">
-      <c r="B144" s="12"/>
-      <c r="C144" s="5"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="3" t="s">
+      <c r="B144" s="23"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F144" s="2"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="5"/>
+      <c r="F144" s="26"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="26"/>
+      <c r="I144" s="25"/>
     </row>
     <row r="145" spans="2:9" ht="24">
-      <c r="B145" s="12"/>
-      <c r="C145" s="5"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="4" t="s">
+      <c r="B145" s="23"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F145" s="2"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="5"/>
+      <c r="F145" s="26"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="25"/>
     </row>
     <row r="146" spans="2:9" ht="20">
-      <c r="B146" s="12"/>
-      <c r="C146" s="5"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="3" t="s">
+      <c r="B146" s="23"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F146" s="2"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="5"/>
+      <c r="F146" s="26"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="26"/>
+      <c r="I146" s="25"/>
     </row>
     <row r="147" spans="2:9" ht="24">
-      <c r="B147" s="12"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="4" t="s">
+      <c r="B147" s="23"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F147" s="2"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="5"/>
+      <c r="F147" s="26"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="26"/>
+      <c r="I147" s="25"/>
     </row>
     <row r="148" spans="2:9" ht="20">
-      <c r="B148" s="12"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="3" t="s">
+      <c r="B148" s="23"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F148" s="2"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="5"/>
+      <c r="F148" s="26"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="26"/>
+      <c r="I148" s="25"/>
     </row>
     <row r="149" spans="2:9" ht="24">
-      <c r="B149" s="12"/>
-      <c r="C149" s="5"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="4" t="s">
+      <c r="B149" s="23"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F149" s="2"/>
-      <c r="G149" s="5"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="5"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="26"/>
+      <c r="I149" s="25"/>
     </row>
     <row r="150" spans="2:9" ht="20">
-      <c r="B150" s="12"/>
-      <c r="C150" s="5"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="3" t="s">
+      <c r="B150" s="23"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F150" s="2"/>
-      <c r="G150" s="5"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="5"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="26"/>
+      <c r="I150" s="25"/>
     </row>
     <row r="151" spans="2:9" ht="24">
-      <c r="B151" s="12"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="4" t="s">
+      <c r="B151" s="23"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F151" s="2"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="5"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="26"/>
+      <c r="I151" s="25"/>
     </row>
     <row r="152" spans="2:9" ht="25">
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="4" t="s">
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H152" s="6"/>
-      <c r="I152" s="4" t="s">
+      <c r="H152" s="3"/>
+      <c r="I152" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="153" spans="2:9" ht="20">
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F153" s="2"/>
-      <c r="G153" s="5" t="s">
+      <c r="F153" s="26"/>
+      <c r="G153" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="H153" s="2"/>
-      <c r="I153" s="5" t="s">
+      <c r="H153" s="26"/>
+      <c r="I153" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="2:9" ht="24">
-      <c r="B154" s="12"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="4" t="s">
+      <c r="B154" s="23"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F154" s="2"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="5"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="25"/>
     </row>
     <row r="155" spans="2:9" ht="20">
-      <c r="B155" s="12"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="3" t="s">
+      <c r="B155" s="23"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F155" s="2"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="5"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="25"/>
     </row>
     <row r="156" spans="2:9" ht="24">
-      <c r="B156" s="12"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="4" t="s">
+      <c r="B156" s="23"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F156" s="2"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="5"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="25"/>
     </row>
     <row r="157" spans="2:9" ht="20">
-      <c r="B157" s="12"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="3" t="s">
+      <c r="B157" s="23"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F157" s="2"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="5"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="25"/>
     </row>
     <row r="158" spans="2:9" ht="24">
-      <c r="B158" s="12"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="4" t="s">
+      <c r="B158" s="23"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F158" s="2"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="5"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="25"/>
     </row>
     <row r="159" spans="2:9" ht="20">
-      <c r="B159" s="12"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="3" t="s">
+      <c r="B159" s="23"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F159" s="2"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="5"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="25"/>
     </row>
     <row r="160" spans="2:9" ht="24">
-      <c r="B160" s="12"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="4" t="s">
+      <c r="B160" s="23"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F160" s="2"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="5"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="25"/>
     </row>
     <row r="161" spans="2:9" ht="20">
-      <c r="B161" s="12"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="3" t="s">
+      <c r="B161" s="23"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F161" s="2"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="5"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="25"/>
     </row>
     <row r="162" spans="2:9" ht="24">
-      <c r="B162" s="12"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="10"/>
-      <c r="E162" s="4" t="s">
+      <c r="B162" s="23"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F162" s="2"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="5"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="26"/>
+      <c r="I162" s="25"/>
     </row>
     <row r="163" spans="2:9" ht="20">
-      <c r="B163" s="12"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="3" t="s">
+      <c r="B163" s="23"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F163" s="2"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="5"/>
+      <c r="F163" s="26"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="26"/>
+      <c r="I163" s="25"/>
     </row>
     <row r="164" spans="2:9" ht="24">
-      <c r="B164" s="12"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="4" t="s">
+      <c r="B164" s="23"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F164" s="2"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="5"/>
+      <c r="F164" s="26"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="26"/>
+      <c r="I164" s="25"/>
     </row>
     <row r="165" spans="2:9" ht="20">
-      <c r="B165" s="12"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="10"/>
-      <c r="E165" s="3" t="s">
+      <c r="B165" s="23"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F165" s="2"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="5"/>
+      <c r="F165" s="26"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="26"/>
+      <c r="I165" s="25"/>
     </row>
     <row r="166" spans="2:9" ht="24">
-      <c r="B166" s="12"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="4" t="s">
+      <c r="B166" s="23"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F166" s="2"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="5"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="26"/>
+      <c r="I166" s="25"/>
     </row>
     <row r="167" spans="2:9" ht="20">
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F167" s="2"/>
-      <c r="G167" s="5" t="s">
+      <c r="F167" s="26"/>
+      <c r="G167" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H167" s="2"/>
-      <c r="I167" s="5" t="s">
+      <c r="H167" s="26"/>
+      <c r="I167" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="168" spans="2:9" ht="24">
-      <c r="B168" s="12"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="4" t="s">
+      <c r="B168" s="23"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F168" s="2"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="5"/>
+      <c r="F168" s="26"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="26"/>
+      <c r="I168" s="25"/>
     </row>
     <row r="169" spans="2:9" ht="20">
-      <c r="B169" s="12"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="3" t="s">
+      <c r="B169" s="23"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F169" s="2"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="5"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="26"/>
+      <c r="I169" s="25"/>
     </row>
     <row r="170" spans="2:9" ht="24">
-      <c r="B170" s="12"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="4" t="s">
+      <c r="B170" s="23"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F170" s="2"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="5"/>
+      <c r="F170" s="26"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="26"/>
+      <c r="I170" s="25"/>
     </row>
     <row r="171" spans="2:9" ht="20">
-      <c r="B171" s="12"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="3" t="s">
+      <c r="B171" s="23"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F171" s="2"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="5"/>
+      <c r="F171" s="26"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="26"/>
+      <c r="I171" s="25"/>
     </row>
     <row r="172" spans="2:9" ht="24">
-      <c r="B172" s="12"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="4" t="s">
+      <c r="B172" s="23"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F172" s="2"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="5"/>
+      <c r="F172" s="26"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="26"/>
+      <c r="I172" s="25"/>
     </row>
     <row r="173" spans="2:9" ht="20">
-      <c r="B173" s="12"/>
-      <c r="C173" s="5"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="3" t="s">
+      <c r="B173" s="23"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="5"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="26"/>
+      <c r="I173" s="25"/>
     </row>
     <row r="174" spans="2:9" ht="48">
-      <c r="B174" s="12"/>
-      <c r="C174" s="5"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="4" t="s">
+      <c r="B174" s="23"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="F174" s="2"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="5"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="26"/>
+      <c r="I174" s="25"/>
     </row>
     <row r="175" spans="2:9" ht="24">
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="25" t="s">
         <v>266</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F175" s="2"/>
-      <c r="G175" s="5" t="s">
+      <c r="F175" s="26"/>
+      <c r="G175" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="H175" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I175" s="5" t="s">
+      <c r="I175" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="176" spans="2:9" ht="24">
-      <c r="B176" s="12"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="4" t="s">
+      <c r="B176" s="23"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F176" s="2"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="3" t="s">
+      <c r="F176" s="26"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I176" s="5"/>
+      <c r="I176" s="25"/>
     </row>
     <row r="177" spans="2:9" ht="24">
-      <c r="B177" s="12"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="3" t="s">
+      <c r="B177" s="23"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F177" s="2"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="7"/>
-      <c r="I177" s="5"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="25"/>
     </row>
     <row r="178" spans="2:9" ht="24">
-      <c r="B178" s="12"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="4" t="s">
+      <c r="B178" s="23"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F178" s="2"/>
-      <c r="G178" s="5"/>
-      <c r="H178" s="7"/>
-      <c r="I178" s="5"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="4"/>
+      <c r="I178" s="25"/>
     </row>
     <row r="179" spans="2:9" ht="20">
-      <c r="B179" s="12"/>
-      <c r="C179" s="5"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="3" t="s">
+      <c r="B179" s="23"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F179" s="2"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="7"/>
-      <c r="I179" s="5"/>
+      <c r="F179" s="26"/>
+      <c r="G179" s="25"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="25"/>
     </row>
     <row r="180" spans="2:9" ht="24">
-      <c r="B180" s="12"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="4" t="s">
+      <c r="B180" s="23"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F180" s="2"/>
-      <c r="G180" s="5"/>
-      <c r="H180" s="7"/>
-      <c r="I180" s="5"/>
+      <c r="F180" s="26"/>
+      <c r="G180" s="25"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="25"/>
     </row>
     <row r="181" spans="2:9" ht="20">
-      <c r="B181" s="12"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="3" t="s">
+      <c r="B181" s="23"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F181" s="2"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="7"/>
-      <c r="I181" s="5"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="25"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="25"/>
     </row>
     <row r="182" spans="2:9" ht="24">
-      <c r="B182" s="12"/>
-      <c r="C182" s="5"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="4" t="s">
+      <c r="B182" s="23"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="F182" s="2"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="7"/>
-      <c r="I182" s="5"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="25"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="25"/>
     </row>
     <row r="183" spans="2:9" ht="24">
-      <c r="B183" s="12"/>
-      <c r="C183" s="5"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="3" t="s">
+      <c r="B183" s="23"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F183" s="2"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="7"/>
-      <c r="I183" s="5"/>
+      <c r="F183" s="26"/>
+      <c r="G183" s="25"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="25"/>
     </row>
     <row r="184" spans="2:9" ht="24">
-      <c r="B184" s="12"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="4" t="s">
+      <c r="B184" s="23"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F184" s="2"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="5"/>
+      <c r="F184" s="26"/>
+      <c r="G184" s="25"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="25"/>
     </row>
     <row r="185" spans="2:9" ht="24">
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F185" s="2"/>
-      <c r="G185" s="5" t="s">
+      <c r="F185" s="26"/>
+      <c r="G185" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="H185" s="2"/>
-      <c r="I185" s="5" t="s">
+      <c r="H185" s="26"/>
+      <c r="I185" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="186" spans="2:9" ht="24">
-      <c r="B186" s="12"/>
-      <c r="C186" s="5"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="3" t="s">
+      <c r="B186" s="23"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="F186" s="2"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="2"/>
-      <c r="I186" s="5"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="25"/>
+      <c r="H186" s="26"/>
+      <c r="I186" s="25"/>
     </row>
     <row r="187" spans="2:9" ht="24">
-      <c r="B187" s="12"/>
-      <c r="C187" s="5"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="3" t="s">
+      <c r="B187" s="23"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F187" s="2"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="2"/>
-      <c r="I187" s="5"/>
+      <c r="F187" s="26"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="26"/>
+      <c r="I187" s="25"/>
     </row>
     <row r="188" spans="2:9" ht="24">
-      <c r="B188" s="12"/>
-      <c r="C188" s="5"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="3" t="s">
+      <c r="B188" s="23"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F188" s="2"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="2"/>
-      <c r="I188" s="5"/>
+      <c r="F188" s="26"/>
+      <c r="G188" s="25"/>
+      <c r="H188" s="26"/>
+      <c r="I188" s="25"/>
     </row>
     <row r="189" spans="2:9" ht="20">
-      <c r="B189" s="12"/>
-      <c r="C189" s="5"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="3" t="s">
+      <c r="B189" s="23"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F189" s="2"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="2"/>
-      <c r="I189" s="5"/>
+      <c r="F189" s="26"/>
+      <c r="G189" s="25"/>
+      <c r="H189" s="26"/>
+      <c r="I189" s="25"/>
     </row>
     <row r="190" spans="2:9" ht="24">
-      <c r="B190" s="12"/>
-      <c r="C190" s="5"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="4" t="s">
+      <c r="B190" s="23"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F190" s="2"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="5"/>
+      <c r="F190" s="26"/>
+      <c r="G190" s="25"/>
+      <c r="H190" s="26"/>
+      <c r="I190" s="25"/>
     </row>
     <row r="191" spans="2:9" ht="20">
-      <c r="B191" s="12"/>
-      <c r="C191" s="5"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="3" t="s">
+      <c r="B191" s="23"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F191" s="2"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="5"/>
+      <c r="F191" s="26"/>
+      <c r="G191" s="25"/>
+      <c r="H191" s="26"/>
+      <c r="I191" s="25"/>
     </row>
     <row r="192" spans="2:9" ht="24">
-      <c r="B192" s="12"/>
-      <c r="C192" s="5"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="4" t="s">
+      <c r="B192" s="23"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F192" s="2"/>
-      <c r="G192" s="5"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="5"/>
+      <c r="F192" s="26"/>
+      <c r="G192" s="25"/>
+      <c r="H192" s="26"/>
+      <c r="I192" s="25"/>
     </row>
     <row r="193" spans="2:9" ht="20">
-      <c r="B193" s="12"/>
-      <c r="C193" s="5"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="3" t="s">
+      <c r="B193" s="23"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F193" s="2"/>
-      <c r="G193" s="5"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="5"/>
+      <c r="F193" s="26"/>
+      <c r="G193" s="25"/>
+      <c r="H193" s="26"/>
+      <c r="I193" s="25"/>
     </row>
     <row r="194" spans="2:9" ht="24">
-      <c r="B194" s="12"/>
-      <c r="C194" s="5"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="4" t="s">
+      <c r="B194" s="23"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="F194" s="2"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="2"/>
-      <c r="I194" s="5"/>
+      <c r="F194" s="26"/>
+      <c r="G194" s="25"/>
+      <c r="H194" s="26"/>
+      <c r="I194" s="25"/>
     </row>
     <row r="195" spans="2:9" ht="20">
-      <c r="B195" s="12"/>
-      <c r="C195" s="5"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="3" t="s">
+      <c r="B195" s="23"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F195" s="2"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="2"/>
-      <c r="I195" s="5"/>
+      <c r="F195" s="26"/>
+      <c r="G195" s="25"/>
+      <c r="H195" s="26"/>
+      <c r="I195" s="25"/>
     </row>
     <row r="196" spans="2:9" ht="24">
-      <c r="B196" s="12"/>
-      <c r="C196" s="5"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="4" t="s">
+      <c r="B196" s="23"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F196" s="2"/>
-      <c r="G196" s="5"/>
-      <c r="H196" s="2"/>
-      <c r="I196" s="5"/>
+      <c r="F196" s="26"/>
+      <c r="G196" s="25"/>
+      <c r="H196" s="26"/>
+      <c r="I196" s="25"/>
     </row>
     <row r="197" spans="2:9" ht="20">
-      <c r="B197" s="12"/>
-      <c r="C197" s="5"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="3" t="s">
+      <c r="B197" s="23"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="F197" s="2"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="2"/>
-      <c r="I197" s="5"/>
+      <c r="F197" s="26"/>
+      <c r="G197" s="25"/>
+      <c r="H197" s="26"/>
+      <c r="I197" s="25"/>
     </row>
     <row r="198" spans="2:9" ht="24">
-      <c r="B198" s="12"/>
-      <c r="C198" s="5"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="4" t="s">
+      <c r="B198" s="23"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F198" s="2"/>
-      <c r="G198" s="5"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="5"/>
+      <c r="F198" s="26"/>
+      <c r="G198" s="25"/>
+      <c r="H198" s="26"/>
+      <c r="I198" s="25"/>
     </row>
     <row r="199" spans="2:9" ht="20">
-      <c r="B199" s="12"/>
-      <c r="C199" s="5"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="3" t="s">
+      <c r="B199" s="23"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F199" s="2"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="5"/>
+      <c r="F199" s="26"/>
+      <c r="G199" s="25"/>
+      <c r="H199" s="26"/>
+      <c r="I199" s="25"/>
     </row>
     <row r="200" spans="2:9" ht="24">
-      <c r="B200" s="12"/>
-      <c r="C200" s="5"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="4" t="s">
+      <c r="B200" s="23"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F200" s="2"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="2"/>
-      <c r="I200" s="5"/>
+      <c r="F200" s="26"/>
+      <c r="G200" s="25"/>
+      <c r="H200" s="26"/>
+      <c r="I200" s="25"/>
     </row>
     <row r="201" spans="2:9" ht="20">
-      <c r="B201" s="12"/>
-      <c r="C201" s="5"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="3" t="s">
+      <c r="B201" s="23"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F201" s="2"/>
-      <c r="G201" s="5"/>
-      <c r="H201" s="2"/>
-      <c r="I201" s="5"/>
+      <c r="F201" s="26"/>
+      <c r="G201" s="25"/>
+      <c r="H201" s="26"/>
+      <c r="I201" s="25"/>
     </row>
     <row r="202" spans="2:9" ht="24">
-      <c r="B202" s="12"/>
-      <c r="C202" s="5"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="4" t="s">
+      <c r="B202" s="23"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F202" s="2"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="5"/>
+      <c r="F202" s="26"/>
+      <c r="G202" s="25"/>
+      <c r="H202" s="26"/>
+      <c r="I202" s="25"/>
     </row>
     <row r="203" spans="2:9" ht="20">
-      <c r="B203" s="12"/>
-      <c r="C203" s="5"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="3" t="s">
+      <c r="B203" s="23"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F203" s="2"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="5"/>
+      <c r="F203" s="26"/>
+      <c r="G203" s="25"/>
+      <c r="H203" s="26"/>
+      <c r="I203" s="25"/>
     </row>
     <row r="204" spans="2:9" ht="24">
-      <c r="B204" s="12"/>
-      <c r="C204" s="5"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="4" t="s">
+      <c r="B204" s="23"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F204" s="2"/>
-      <c r="G204" s="5"/>
-      <c r="H204" s="2"/>
-      <c r="I204" s="5"/>
+      <c r="F204" s="26"/>
+      <c r="G204" s="25"/>
+      <c r="H204" s="26"/>
+      <c r="I204" s="25"/>
     </row>
     <row r="205" spans="2:9" ht="48">
-      <c r="B205" s="13" t="s">
+      <c r="B205" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C205" s="4" t="s">
+      <c r="C205" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D205" s="6"/>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="4" t="s">
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H205" s="6"/>
-      <c r="I205" s="6"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
     </row>
     <row r="206" spans="2:9" ht="19">
-      <c r="B206" s="12" t="s">
+      <c r="B206" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C206" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206" s="1">
         <v>-1</v>
       </c>
-      <c r="F206" s="2"/>
-      <c r="G206" s="5" t="s">
+      <c r="F206" s="26"/>
+      <c r="G206" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="H206" s="2"/>
-      <c r="I206" s="5" t="s">
+      <c r="H206" s="26"/>
+      <c r="I206" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="207" spans="2:9" ht="24">
-      <c r="B207" s="12"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="4" t="s">
+      <c r="B207" s="23"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F207" s="2"/>
-      <c r="G207" s="5"/>
-      <c r="H207" s="2"/>
-      <c r="I207" s="5"/>
+      <c r="F207" s="26"/>
+      <c r="G207" s="25"/>
+      <c r="H207" s="26"/>
+      <c r="I207" s="25"/>
     </row>
     <row r="208" spans="2:9" ht="19">
-      <c r="B208" s="12"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="3">
+      <c r="B208" s="23"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="1">
         <v>-2</v>
       </c>
-      <c r="F208" s="2"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="2"/>
-      <c r="I208" s="5"/>
+      <c r="F208" s="26"/>
+      <c r="G208" s="25"/>
+      <c r="H208" s="26"/>
+      <c r="I208" s="25"/>
     </row>
     <row r="209" spans="2:9" ht="24">
-      <c r="B209" s="12"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="4" t="s">
+      <c r="B209" s="23"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F209" s="2"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="5"/>
+      <c r="F209" s="26"/>
+      <c r="G209" s="25"/>
+      <c r="H209" s="26"/>
+      <c r="I209" s="25"/>
     </row>
     <row r="210" spans="2:9" ht="19">
-      <c r="B210" s="12"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="3">
+      <c r="B210" s="23"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="1">
         <v>-4</v>
       </c>
-      <c r="F210" s="2"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="2"/>
-      <c r="I210" s="5"/>
+      <c r="F210" s="26"/>
+      <c r="G210" s="25"/>
+      <c r="H210" s="26"/>
+      <c r="I210" s="25"/>
     </row>
     <row r="211" spans="2:9" ht="24">
-      <c r="B211" s="12"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="4" t="s">
+      <c r="B211" s="23"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F211" s="2"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="2"/>
-      <c r="I211" s="5"/>
+      <c r="F211" s="26"/>
+      <c r="G211" s="25"/>
+      <c r="H211" s="26"/>
+      <c r="I211" s="25"/>
     </row>
     <row r="212" spans="2:9" ht="19">
-      <c r="B212" s="12"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="3">
+      <c r="B212" s="23"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="1">
         <v>-6</v>
       </c>
-      <c r="F212" s="2"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="2"/>
-      <c r="I212" s="5"/>
+      <c r="F212" s="26"/>
+      <c r="G212" s="25"/>
+      <c r="H212" s="26"/>
+      <c r="I212" s="25"/>
     </row>
     <row r="213" spans="2:9" ht="24">
-      <c r="B213" s="12"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="4" t="s">
+      <c r="B213" s="23"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F213" s="2"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="5"/>
+      <c r="F213" s="26"/>
+      <c r="G213" s="25"/>
+      <c r="H213" s="26"/>
+      <c r="I213" s="25"/>
     </row>
     <row r="214" spans="2:9" ht="20">
-      <c r="B214" s="12"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="3" t="s">
+      <c r="B214" s="23"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="24"/>
+      <c r="E214" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F214" s="2"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="5"/>
+      <c r="F214" s="26"/>
+      <c r="G214" s="25"/>
+      <c r="H214" s="26"/>
+      <c r="I214" s="25"/>
     </row>
     <row r="215" spans="2:9" ht="24">
-      <c r="B215" s="12"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="4" t="s">
+      <c r="B215" s="23"/>
+      <c r="C215" s="24"/>
+      <c r="D215" s="24"/>
+      <c r="E215" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F215" s="2"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="2"/>
-      <c r="I215" s="5"/>
+      <c r="F215" s="26"/>
+      <c r="G215" s="25"/>
+      <c r="H215" s="26"/>
+      <c r="I215" s="25"/>
     </row>
     <row r="216" spans="2:9" ht="20">
-      <c r="B216" s="12"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="3" t="s">
+      <c r="B216" s="23"/>
+      <c r="C216" s="24"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F216" s="2"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="5"/>
+      <c r="F216" s="26"/>
+      <c r="G216" s="25"/>
+      <c r="H216" s="26"/>
+      <c r="I216" s="25"/>
     </row>
     <row r="217" spans="2:9" ht="24">
-      <c r="B217" s="12"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="4" t="s">
+      <c r="B217" s="23"/>
+      <c r="C217" s="24"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F217" s="2"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="5"/>
+      <c r="F217" s="26"/>
+      <c r="G217" s="25"/>
+      <c r="H217" s="26"/>
+      <c r="I217" s="25"/>
     </row>
     <row r="218" spans="2:9" ht="24">
-      <c r="B218" s="12"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="3" t="s">
+      <c r="B218" s="23"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F218" s="2"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="5"/>
+      <c r="F218" s="26"/>
+      <c r="G218" s="25"/>
+      <c r="H218" s="26"/>
+      <c r="I218" s="25"/>
     </row>
     <row r="219" spans="2:9" ht="24">
-      <c r="B219" s="12"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="4" t="s">
+      <c r="B219" s="23"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F219" s="2"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="5"/>
+      <c r="F219" s="26"/>
+      <c r="G219" s="25"/>
+      <c r="H219" s="26"/>
+      <c r="I219" s="25"/>
     </row>
     <row r="220" spans="2:9" ht="20">
-      <c r="B220" s="12"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="3" t="s">
+      <c r="B220" s="23"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F220" s="2"/>
-      <c r="G220" s="5"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="5"/>
+      <c r="F220" s="26"/>
+      <c r="G220" s="25"/>
+      <c r="H220" s="26"/>
+      <c r="I220" s="25"/>
     </row>
     <row r="221" spans="2:9" ht="24">
-      <c r="B221" s="12"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="4" t="s">
+      <c r="B221" s="23"/>
+      <c r="C221" s="24"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="F221" s="2"/>
-      <c r="G221" s="5"/>
-      <c r="H221" s="2"/>
-      <c r="I221" s="5"/>
+      <c r="F221" s="26"/>
+      <c r="G221" s="25"/>
+      <c r="H221" s="26"/>
+      <c r="I221" s="25"/>
     </row>
     <row r="222" spans="2:9" ht="24">
-      <c r="B222" s="12"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="3" t="s">
+      <c r="B222" s="23"/>
+      <c r="C222" s="24"/>
+      <c r="D222" s="24"/>
+      <c r="E222" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F222" s="2"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="5"/>
+      <c r="F222" s="26"/>
+      <c r="G222" s="25"/>
+      <c r="H222" s="26"/>
+      <c r="I222" s="25"/>
     </row>
     <row r="223" spans="2:9" ht="24">
-      <c r="B223" s="12"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="4" t="s">
+      <c r="B223" s="23"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="F223" s="2"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="5"/>
+      <c r="F223" s="26"/>
+      <c r="G223" s="25"/>
+      <c r="H223" s="26"/>
+      <c r="I223" s="25"/>
     </row>
     <row r="224" spans="2:9" ht="20">
-      <c r="B224" s="12"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="3" t="s">
+      <c r="B224" s="23"/>
+      <c r="C224" s="24"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F224" s="2"/>
-      <c r="G224" s="5"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="5"/>
+      <c r="F224" s="26"/>
+      <c r="G224" s="25"/>
+      <c r="H224" s="26"/>
+      <c r="I224" s="25"/>
     </row>
     <row r="225" spans="2:9" ht="24">
-      <c r="B225" s="12"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="4" t="s">
+      <c r="B225" s="23"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F225" s="2"/>
-      <c r="G225" s="5"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="5"/>
+      <c r="F225" s="26"/>
+      <c r="G225" s="25"/>
+      <c r="H225" s="26"/>
+      <c r="I225" s="25"/>
     </row>
     <row r="226" spans="2:9" ht="20">
-      <c r="B226" s="12"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="3" t="s">
+      <c r="B226" s="23"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F226" s="2"/>
-      <c r="G226" s="5"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="5"/>
+      <c r="F226" s="26"/>
+      <c r="G226" s="25"/>
+      <c r="H226" s="26"/>
+      <c r="I226" s="25"/>
     </row>
     <row r="227" spans="2:9" ht="24">
-      <c r="B227" s="12"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="4" t="s">
+      <c r="B227" s="23"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F227" s="2"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="5"/>
+      <c r="F227" s="26"/>
+      <c r="G227" s="25"/>
+      <c r="H227" s="26"/>
+      <c r="I227" s="25"/>
     </row>
     <row r="228" spans="2:9" ht="24">
-      <c r="B228" s="12"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="3" t="s">
+      <c r="B228" s="23"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F228" s="2"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="5"/>
+      <c r="F228" s="26"/>
+      <c r="G228" s="25"/>
+      <c r="H228" s="26"/>
+      <c r="I228" s="25"/>
     </row>
     <row r="229" spans="2:9" ht="24">
-      <c r="B229" s="12"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="4" t="s">
+      <c r="B229" s="23"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F229" s="2"/>
-      <c r="G229" s="5"/>
-      <c r="H229" s="2"/>
-      <c r="I229" s="5"/>
+      <c r="F229" s="26"/>
+      <c r="G229" s="25"/>
+      <c r="H229" s="26"/>
+      <c r="I229" s="25"/>
     </row>
     <row r="230" spans="2:9" ht="24">
-      <c r="B230" s="12"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="3" t="s">
+      <c r="B230" s="23"/>
+      <c r="C230" s="24"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F230" s="2"/>
-      <c r="G230" s="5"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="5"/>
+      <c r="F230" s="26"/>
+      <c r="G230" s="25"/>
+      <c r="H230" s="26"/>
+      <c r="I230" s="25"/>
     </row>
     <row r="231" spans="2:9" ht="24">
-      <c r="B231" s="12"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="4" t="s">
+      <c r="B231" s="23"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F231" s="2"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="2"/>
-      <c r="I231" s="5"/>
+      <c r="F231" s="26"/>
+      <c r="G231" s="25"/>
+      <c r="H231" s="26"/>
+      <c r="I231" s="25"/>
     </row>
     <row r="232" spans="2:9" ht="20">
-      <c r="B232" s="12"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="3" t="s">
+      <c r="B232" s="23"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F232" s="2"/>
-      <c r="G232" s="5"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="5"/>
+      <c r="F232" s="26"/>
+      <c r="G232" s="25"/>
+      <c r="H232" s="26"/>
+      <c r="I232" s="25"/>
     </row>
     <row r="233" spans="2:9" ht="24">
-      <c r="B233" s="12"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="4" t="s">
+      <c r="B233" s="23"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F233" s="2"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="5"/>
+      <c r="F233" s="26"/>
+      <c r="G233" s="25"/>
+      <c r="H233" s="26"/>
+      <c r="I233" s="25"/>
     </row>
     <row r="234" spans="2:9" ht="24">
-      <c r="B234" s="12"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="3" t="s">
+      <c r="B234" s="23"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F234" s="2"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="5"/>
+      <c r="F234" s="26"/>
+      <c r="G234" s="25"/>
+      <c r="H234" s="26"/>
+      <c r="I234" s="25"/>
     </row>
     <row r="235" spans="2:9" ht="24">
-      <c r="B235" s="12"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="4" t="s">
+      <c r="B235" s="23"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F235" s="2"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="5"/>
+      <c r="F235" s="26"/>
+      <c r="G235" s="25"/>
+      <c r="H235" s="26"/>
+      <c r="I235" s="25"/>
     </row>
     <row r="236" spans="2:9" ht="24">
-      <c r="B236" s="12"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="3" t="s">
+      <c r="B236" s="23"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F236" s="2"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="5"/>
+      <c r="F236" s="26"/>
+      <c r="G236" s="25"/>
+      <c r="H236" s="26"/>
+      <c r="I236" s="25"/>
     </row>
     <row r="237" spans="2:9" ht="24">
-      <c r="B237" s="12"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="4" t="s">
+      <c r="B237" s="23"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="F237" s="2"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="2"/>
-      <c r="I237" s="5"/>
+      <c r="F237" s="26"/>
+      <c r="G237" s="25"/>
+      <c r="H237" s="26"/>
+      <c r="I237" s="25"/>
     </row>
     <row r="238" spans="2:9" ht="20">
-      <c r="B238" s="12"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="3" t="s">
+      <c r="B238" s="23"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F238" s="2"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="2"/>
-      <c r="I238" s="5"/>
+      <c r="F238" s="26"/>
+      <c r="G238" s="25"/>
+      <c r="H238" s="26"/>
+      <c r="I238" s="25"/>
     </row>
     <row r="239" spans="2:9" ht="24">
-      <c r="B239" s="12"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="4" t="s">
+      <c r="B239" s="23"/>
+      <c r="C239" s="24"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F239" s="2"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="5"/>
+      <c r="F239" s="26"/>
+      <c r="G239" s="25"/>
+      <c r="H239" s="26"/>
+      <c r="I239" s="25"/>
     </row>
     <row r="240" spans="2:9" ht="20">
-      <c r="B240" s="12"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="3" t="s">
+      <c r="B240" s="23"/>
+      <c r="C240" s="24"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F240" s="2"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="2"/>
-      <c r="I240" s="5"/>
+      <c r="F240" s="26"/>
+      <c r="G240" s="25"/>
+      <c r="H240" s="26"/>
+      <c r="I240" s="25"/>
     </row>
     <row r="241" spans="2:9" ht="24">
-      <c r="B241" s="12"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="4" t="s">
+      <c r="B241" s="23"/>
+      <c r="C241" s="24"/>
+      <c r="D241" s="24"/>
+      <c r="E241" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="F241" s="2"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="5"/>
+      <c r="F241" s="26"/>
+      <c r="G241" s="25"/>
+      <c r="H241" s="26"/>
+      <c r="I241" s="25"/>
     </row>
     <row r="242" spans="2:9" ht="20">
-      <c r="B242" s="12"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="3" t="s">
+      <c r="B242" s="23"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="24"/>
+      <c r="E242" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F242" s="2"/>
-      <c r="G242" s="5"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="5"/>
+      <c r="F242" s="26"/>
+      <c r="G242" s="25"/>
+      <c r="H242" s="26"/>
+      <c r="I242" s="25"/>
     </row>
     <row r="243" spans="2:9" ht="24">
-      <c r="B243" s="12"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="4" t="s">
+      <c r="B243" s="23"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="24"/>
+      <c r="E243" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F243" s="2"/>
-      <c r="G243" s="5"/>
-      <c r="H243" s="2"/>
-      <c r="I243" s="5"/>
+      <c r="F243" s="26"/>
+      <c r="G243" s="25"/>
+      <c r="H243" s="26"/>
+      <c r="I243" s="25"/>
     </row>
     <row r="244" spans="2:9" ht="20">
-      <c r="B244" s="12"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="3" t="s">
+      <c r="B244" s="23"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="24"/>
+      <c r="E244" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="F244" s="2"/>
-      <c r="G244" s="5"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="5"/>
+      <c r="F244" s="26"/>
+      <c r="G244" s="25"/>
+      <c r="H244" s="26"/>
+      <c r="I244" s="25"/>
     </row>
     <row r="245" spans="2:9" ht="24">
-      <c r="B245" s="12"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="4" t="s">
+      <c r="B245" s="23"/>
+      <c r="C245" s="24"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F245" s="2"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="2"/>
-      <c r="I245" s="5"/>
+      <c r="F245" s="26"/>
+      <c r="G245" s="25"/>
+      <c r="H245" s="26"/>
+      <c r="I245" s="25"/>
     </row>
     <row r="246" spans="2:9" ht="25">
-      <c r="B246" s="13" t="s">
+      <c r="B246" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6"/>
-      <c r="G246" s="4" t="s">
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H246" s="6"/>
-      <c r="I246" s="6"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
     </row>
     <row r="247" spans="2:9" ht="72">
-      <c r="B247" s="13" t="s">
+      <c r="B247" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="E247" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F247" s="6"/>
-      <c r="G247" s="4" t="s">
+      <c r="F247" s="3"/>
+      <c r="G247" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H247" s="6"/>
-      <c r="I247" s="4" t="s">
+      <c r="H247" s="3"/>
+      <c r="I247" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="248" spans="2:9" ht="25">
-      <c r="B248" s="13" t="s">
+      <c r="B248" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C248" s="4" t="s">
+      <c r="C248" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6"/>
-      <c r="G248" s="4" t="s">
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H248" s="6"/>
-      <c r="I248" s="6"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
     </row>
     <row r="249" spans="2:9" ht="25">
-      <c r="B249" s="13" t="s">
+      <c r="B249" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="6"/>
-      <c r="G249" s="4" t="s">
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H249" s="6"/>
-      <c r="I249" s="6"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
     </row>
     <row r="250" spans="2:9" ht="24">
-      <c r="B250" s="12" t="s">
+      <c r="B250" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="D250" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E250" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="F250" s="4" t="s">
+      <c r="F250" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G250" s="5" t="s">
+      <c r="G250" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="H250" s="2"/>
-      <c r="I250" s="5" t="s">
+      <c r="H250" s="26"/>
+      <c r="I250" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="251" spans="2:9" ht="48">
-      <c r="B251" s="12"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="3" t="s">
+      <c r="B251" s="23"/>
+      <c r="C251" s="24"/>
+      <c r="D251" s="24"/>
+      <c r="E251" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F251" s="3" t="s">
+      <c r="F251" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G251" s="5"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="5"/>
+      <c r="G251" s="25"/>
+      <c r="H251" s="26"/>
+      <c r="I251" s="25"/>
     </row>
     <row r="252" spans="2:9" ht="24">
-      <c r="B252" s="12"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="3" t="s">
+      <c r="B252" s="23"/>
+      <c r="C252" s="24"/>
+      <c r="D252" s="24"/>
+      <c r="E252" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F252" s="7"/>
-      <c r="G252" s="5"/>
-      <c r="H252" s="2"/>
-      <c r="I252" s="5"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="25"/>
+      <c r="H252" s="26"/>
+      <c r="I252" s="25"/>
     </row>
     <row r="253" spans="2:9" ht="24">
-      <c r="B253" s="12"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="3" t="s">
+      <c r="B253" s="23"/>
+      <c r="C253" s="24"/>
+      <c r="D253" s="24"/>
+      <c r="E253" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F253" s="3" t="s">
+      <c r="F253" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G253" s="5"/>
-      <c r="H253" s="2"/>
-      <c r="I253" s="5"/>
+      <c r="G253" s="25"/>
+      <c r="H253" s="26"/>
+      <c r="I253" s="25"/>
     </row>
     <row r="254" spans="2:9" ht="24">
-      <c r="B254" s="12"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="3" t="s">
+      <c r="B254" s="23"/>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
+      <c r="E254" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F254" s="7"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="5"/>
+      <c r="F254" s="4"/>
+      <c r="G254" s="25"/>
+      <c r="H254" s="26"/>
+      <c r="I254" s="25"/>
     </row>
     <row r="255" spans="2:9" ht="24">
-      <c r="B255" s="12"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="3" t="s">
+      <c r="B255" s="23"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F255" s="3" t="s">
+      <c r="F255" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G255" s="5"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="5"/>
+      <c r="G255" s="25"/>
+      <c r="H255" s="26"/>
+      <c r="I255" s="25"/>
     </row>
     <row r="256" spans="2:9" ht="25">
-      <c r="B256" s="13" t="s">
+      <c r="B256" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6"/>
-      <c r="G256" s="4" t="s">
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H256" s="6"/>
-      <c r="I256" s="6"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
     </row>
     <row r="257" spans="2:9" ht="25">
-      <c r="B257" s="13" t="s">
+      <c r="B257" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="4" t="s">
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H257" s="6"/>
-      <c r="I257" s="6"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
     </row>
     <row r="258" spans="2:9" ht="25">
-      <c r="B258" s="13" t="s">
+      <c r="B258" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="6"/>
-      <c r="G258" s="4" t="s">
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H258" s="6"/>
-      <c r="I258" s="6"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
     </row>
     <row r="259" spans="2:9" ht="25">
-      <c r="B259" s="13" t="s">
+      <c r="B259" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="6"/>
-      <c r="G259" s="4" t="s">
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="H259" s="6"/>
-      <c r="I259" s="6"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
     </row>
     <row r="260" spans="2:9" ht="25">
-      <c r="B260" s="13" t="s">
+      <c r="B260" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="C260" s="4" t="s">
+      <c r="C260" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="6"/>
-      <c r="G260" s="4" t="s">
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H260" s="6"/>
-      <c r="I260" s="6"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
     </row>
     <row r="261" spans="2:9" ht="48">
-      <c r="B261" s="13" t="s">
+      <c r="B261" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="6"/>
-      <c r="G261" s="4" t="s">
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H261" s="6"/>
-      <c r="I261" s="6"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
     </row>
     <row r="262" spans="2:9" ht="25">
-      <c r="B262" s="13" t="s">
+      <c r="B262" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6"/>
-      <c r="G262" s="4" t="s">
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H262" s="6"/>
-      <c r="I262" s="6"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="3"/>
     </row>
     <row r="263" spans="2:9" ht="25">
-      <c r="B263" s="13" t="s">
+      <c r="B263" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
-      <c r="G263" s="6"/>
-      <c r="H263" s="6"/>
-      <c r="I263" s="6"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
     </row>
     <row r="264" spans="2:9" ht="25">
-      <c r="B264" s="13" t="s">
+      <c r="B264" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="C264" s="6"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6"/>
-      <c r="G264" s="6"/>
-      <c r="H264" s="6"/>
-      <c r="I264" s="6"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I20:I26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="I27:I32"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="F20:F26"/>
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="H20:H26"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="C46:C52"/>
+    <mergeCell ref="D46:D52"/>
+    <mergeCell ref="F46:F52"/>
+    <mergeCell ref="G46:G52"/>
+    <mergeCell ref="H46:H52"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="I53:I59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="C53:C59"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="F53:F59"/>
+    <mergeCell ref="G53:G59"/>
+    <mergeCell ref="H53:H59"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="D70:D74"/>
+    <mergeCell ref="F70:F74"/>
+    <mergeCell ref="G70:G74"/>
+    <mergeCell ref="I70:I74"/>
+    <mergeCell ref="B75:B81"/>
+    <mergeCell ref="C75:C81"/>
+    <mergeCell ref="D75:D81"/>
+    <mergeCell ref="F75:F81"/>
+    <mergeCell ref="G75:G81"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="G89:G94"/>
+    <mergeCell ref="H89:H94"/>
+    <mergeCell ref="I89:I94"/>
+    <mergeCell ref="H75:H81"/>
+    <mergeCell ref="I75:I81"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="C82:C88"/>
+    <mergeCell ref="D82:D88"/>
+    <mergeCell ref="F82:F88"/>
+    <mergeCell ref="G82:G88"/>
+    <mergeCell ref="H82:H88"/>
+    <mergeCell ref="I82:I88"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="C99:C105"/>
+    <mergeCell ref="D99:D105"/>
+    <mergeCell ref="G99:G105"/>
+    <mergeCell ref="H99:H105"/>
+    <mergeCell ref="I99:I105"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="G95:G98"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="I95:I98"/>
+    <mergeCell ref="B114:B133"/>
+    <mergeCell ref="C114:C133"/>
+    <mergeCell ref="D114:D133"/>
+    <mergeCell ref="G114:G133"/>
+    <mergeCell ref="H114:H133"/>
+    <mergeCell ref="I114:I133"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="C106:C113"/>
+    <mergeCell ref="D106:D113"/>
+    <mergeCell ref="G106:G113"/>
+    <mergeCell ref="H106:H113"/>
+    <mergeCell ref="I106:I113"/>
+    <mergeCell ref="I140:I151"/>
+    <mergeCell ref="B153:B166"/>
+    <mergeCell ref="C153:C166"/>
+    <mergeCell ref="D153:D166"/>
+    <mergeCell ref="F153:F166"/>
+    <mergeCell ref="G153:G166"/>
+    <mergeCell ref="H153:H166"/>
+    <mergeCell ref="I153:I166"/>
+    <mergeCell ref="B140:B151"/>
+    <mergeCell ref="C140:C151"/>
+    <mergeCell ref="D140:D151"/>
+    <mergeCell ref="F140:F151"/>
+    <mergeCell ref="G140:G151"/>
+    <mergeCell ref="H140:H151"/>
+    <mergeCell ref="I167:I174"/>
+    <mergeCell ref="B175:B184"/>
+    <mergeCell ref="C175:C184"/>
+    <mergeCell ref="D175:D184"/>
+    <mergeCell ref="F175:F184"/>
+    <mergeCell ref="G175:G184"/>
+    <mergeCell ref="I175:I184"/>
+    <mergeCell ref="B167:B174"/>
+    <mergeCell ref="C167:C174"/>
+    <mergeCell ref="D167:D174"/>
+    <mergeCell ref="F167:F174"/>
+    <mergeCell ref="G167:G174"/>
+    <mergeCell ref="H167:H174"/>
     <mergeCell ref="B250:B255"/>
     <mergeCell ref="C250:C255"/>
     <mergeCell ref="D250:D255"/>
@@ -10242,149 +10385,6 @@
     <mergeCell ref="F185:F204"/>
     <mergeCell ref="G185:G204"/>
     <mergeCell ref="H185:H204"/>
-    <mergeCell ref="I167:I174"/>
-    <mergeCell ref="B175:B184"/>
-    <mergeCell ref="C175:C184"/>
-    <mergeCell ref="D175:D184"/>
-    <mergeCell ref="F175:F184"/>
-    <mergeCell ref="G175:G184"/>
-    <mergeCell ref="I175:I184"/>
-    <mergeCell ref="B167:B174"/>
-    <mergeCell ref="C167:C174"/>
-    <mergeCell ref="D167:D174"/>
-    <mergeCell ref="F167:F174"/>
-    <mergeCell ref="G167:G174"/>
-    <mergeCell ref="H167:H174"/>
-    <mergeCell ref="I140:I151"/>
-    <mergeCell ref="B153:B166"/>
-    <mergeCell ref="C153:C166"/>
-    <mergeCell ref="D153:D166"/>
-    <mergeCell ref="F153:F166"/>
-    <mergeCell ref="G153:G166"/>
-    <mergeCell ref="H153:H166"/>
-    <mergeCell ref="I153:I166"/>
-    <mergeCell ref="B140:B151"/>
-    <mergeCell ref="C140:C151"/>
-    <mergeCell ref="D140:D151"/>
-    <mergeCell ref="F140:F151"/>
-    <mergeCell ref="G140:G151"/>
-    <mergeCell ref="H140:H151"/>
-    <mergeCell ref="B114:B133"/>
-    <mergeCell ref="C114:C133"/>
-    <mergeCell ref="D114:D133"/>
-    <mergeCell ref="G114:G133"/>
-    <mergeCell ref="H114:H133"/>
-    <mergeCell ref="I114:I133"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="C106:C113"/>
-    <mergeCell ref="D106:D113"/>
-    <mergeCell ref="G106:G113"/>
-    <mergeCell ref="H106:H113"/>
-    <mergeCell ref="I106:I113"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="C99:C105"/>
-    <mergeCell ref="D99:D105"/>
-    <mergeCell ref="G99:G105"/>
-    <mergeCell ref="H99:H105"/>
-    <mergeCell ref="I99:I105"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="D89:D94"/>
-    <mergeCell ref="G89:G94"/>
-    <mergeCell ref="H89:H94"/>
-    <mergeCell ref="I89:I94"/>
-    <mergeCell ref="H75:H81"/>
-    <mergeCell ref="I75:I81"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="C82:C88"/>
-    <mergeCell ref="D82:D88"/>
-    <mergeCell ref="F82:F88"/>
-    <mergeCell ref="G82:G88"/>
-    <mergeCell ref="H82:H88"/>
-    <mergeCell ref="I82:I88"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="D70:D74"/>
-    <mergeCell ref="F70:F74"/>
-    <mergeCell ref="G70:G74"/>
-    <mergeCell ref="I70:I74"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="C75:C81"/>
-    <mergeCell ref="D75:D81"/>
-    <mergeCell ref="F75:F81"/>
-    <mergeCell ref="G75:G81"/>
-    <mergeCell ref="I53:I59"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="G60:G63"/>
-    <mergeCell ref="H60:H63"/>
-    <mergeCell ref="I60:I63"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="C53:C59"/>
-    <mergeCell ref="D53:D59"/>
-    <mergeCell ref="F53:F59"/>
-    <mergeCell ref="G53:G59"/>
-    <mergeCell ref="H53:H59"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="C46:C52"/>
-    <mergeCell ref="D46:D52"/>
-    <mergeCell ref="F46:F52"/>
-    <mergeCell ref="G46:G52"/>
-    <mergeCell ref="H46:H52"/>
-    <mergeCell ref="I46:I52"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="H27:H32"/>
-    <mergeCell ref="I27:I32"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="F20:F26"/>
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -10398,1066 +10398,1073 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B1EE81-84F2-714C-BABB-3F4FFB9E7960}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="96.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="96.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="48.6640625" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="11"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28">
-      <c r="A1" s="19"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="13" t="s">
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="25" hidden="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" ht="20">
-      <c r="B3" s="22" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="20" hidden="1">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20">
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="1:6" ht="20" hidden="1">
+      <c r="B4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="1:6" ht="20" hidden="1">
+      <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" ht="20">
-      <c r="B6" s="22" t="s">
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="20" hidden="1">
+      <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6" ht="20">
-      <c r="B7" s="22" t="s">
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" ht="20" hidden="1">
+      <c r="B7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" ht="20">
-      <c r="B8" s="22" t="s">
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" ht="20" hidden="1">
+      <c r="B8" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="24" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27"/>
-    </row>
-    <row r="9" spans="1:6" ht="20">
-      <c r="B9" s="22" t="s">
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="20" hidden="1">
+      <c r="B9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" spans="1:6" ht="20">
-      <c r="B10" s="22" t="s">
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="20" hidden="1">
+      <c r="B10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="24" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="27"/>
-    </row>
-    <row r="11" spans="1:6" ht="20">
-      <c r="B11" s="22" t="s">
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="20" hidden="1">
+      <c r="B11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="1:6" ht="20" hidden="1">
+      <c r="B12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20">
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="1:6" ht="20" hidden="1">
+      <c r="B13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20">
-      <c r="B14" s="22" t="s">
+    <row r="14" spans="1:6" ht="20" hidden="1">
+      <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:6" ht="20">
-      <c r="B15" s="22" t="s">
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="20" hidden="1">
+      <c r="B15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="22" t="s">
         <v>437</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:6" ht="20">
-      <c r="B16" s="22" t="s">
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="20" hidden="1">
+      <c r="B16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="2:6" ht="20">
-      <c r="B17" s="22" t="s">
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="2:6" ht="20" hidden="1">
+      <c r="B17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="19" t="s">
         <v>446</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F17" s="27"/>
-    </row>
-    <row r="18" spans="2:6" ht="20">
-      <c r="B18" s="22" t="s">
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="2:6" ht="20" hidden="1">
+      <c r="B18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" spans="2:6" ht="20">
-      <c r="B19" s="22" t="s">
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="2:6" ht="20" hidden="1">
+      <c r="B19" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="2:6" ht="20">
-      <c r="B20" s="22" t="s">
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="2:6" ht="20" hidden="1">
+      <c r="B20" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="21" t="s">
         <v>449</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F20" s="27"/>
-    </row>
-    <row r="21" spans="2:6" ht="20">
-      <c r="B21" s="22" t="s">
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="2:6" ht="20" hidden="1">
+      <c r="B21" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="2:6" ht="20">
-      <c r="B22" s="22" t="s">
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="2:6" ht="20" hidden="1">
+      <c r="B22" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="24" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" spans="2:6" ht="20">
-      <c r="B23" s="22" t="s">
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="2:6" ht="20" hidden="1">
+      <c r="B23" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="24" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="27"/>
-    </row>
-    <row r="24" spans="2:6" ht="20">
-      <c r="B24" s="22" t="s">
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="2:6" ht="20" hidden="1">
+      <c r="B24" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="24" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="27"/>
-    </row>
-    <row r="25" spans="2:6" ht="20">
-      <c r="B25" s="22" t="s">
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="2:6" ht="20" hidden="1">
+      <c r="B25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="20">
-      <c r="B26" s="22" t="s">
+    <row r="26" spans="2:6" ht="20" hidden="1">
+      <c r="B26" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="20">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="20">
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="2:6" ht="20" hidden="1">
+      <c r="B28" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="24" t="s">
+      <c r="D28" s="19"/>
+      <c r="E28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="2:6" ht="20">
-      <c r="B29" s="22" t="s">
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="2:6" ht="20" hidden="1">
+      <c r="B29" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="24" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="27"/>
-    </row>
-    <row r="30" spans="2:6" ht="20">
-      <c r="B30" s="22" t="s">
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="2:6" ht="20" hidden="1">
+      <c r="B30" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="24" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="27"/>
-    </row>
-    <row r="31" spans="2:6" ht="20">
-      <c r="B31" s="22" t="s">
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="2:6" ht="20" hidden="1">
+      <c r="B31" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="24" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="2:6" ht="20">
-      <c r="B32" s="22" t="s">
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="2:6" ht="20" hidden="1">
+      <c r="B32" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="24" t="s">
+      <c r="D32" s="19"/>
+      <c r="E32" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="20">
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="2:6" ht="20" hidden="1">
+      <c r="B33" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="24" t="s">
+      <c r="D33" s="19"/>
+      <c r="E33" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="20">
-      <c r="B34" s="22" t="s">
+    <row r="34" spans="2:6" ht="20" hidden="1">
+      <c r="B34" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="20">
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="2:6" ht="20" hidden="1">
+      <c r="B35" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="20">
-      <c r="B36" s="22" t="s">
+    <row r="36" spans="2:6" ht="20" hidden="1">
+      <c r="B36" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="E36" s="24" t="s">
+      <c r="E36" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="F36" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="20">
-      <c r="B37" s="22" t="s">
+    <row r="37" spans="2:6" ht="20" hidden="1">
+      <c r="B37" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="E37" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="40">
-      <c r="B38" s="22" t="s">
+    <row r="38" spans="2:6" ht="40" hidden="1">
+      <c r="B38" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D38" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="25" t="s">
+      <c r="F38" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="20">
-      <c r="B39" s="22" t="s">
+    <row r="39" spans="2:6" ht="20" hidden="1">
+      <c r="B39" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="E39" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F39" s="25" t="s">
+      <c r="F39" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="20">
-      <c r="B40" s="22" t="s">
+    <row r="40" spans="2:6" ht="20" hidden="1">
+      <c r="B40" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="20">
-      <c r="B41" s="22" t="s">
+    <row r="41" spans="2:6" ht="20" hidden="1">
+      <c r="B41" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="20">
-      <c r="B42" s="22" t="s">
+    <row r="42" spans="2:6" ht="20" hidden="1">
+      <c r="B42" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="24" t="s">
+      <c r="D42" s="19"/>
+      <c r="E42" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F42" s="27"/>
-    </row>
-    <row r="43" spans="2:6" ht="20">
-      <c r="B43" s="22" t="s">
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="2:6" ht="20" hidden="1">
+      <c r="B43" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="24" t="s">
+      <c r="D43" s="19"/>
+      <c r="E43" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F43" s="27"/>
-    </row>
-    <row r="44" spans="2:6" ht="20">
-      <c r="B44" s="22" t="s">
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="2:6" ht="20" hidden="1">
+      <c r="B44" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="24" t="s">
+      <c r="D44" s="19"/>
+      <c r="E44" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F44" s="27"/>
-    </row>
-    <row r="45" spans="2:6" ht="20">
-      <c r="B45" s="22" t="s">
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="2:6" ht="20" hidden="1">
+      <c r="B45" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="24" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F45" s="27"/>
-    </row>
-    <row r="46" spans="2:6" ht="40">
-      <c r="B46" s="22" t="s">
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="2:6" ht="40" hidden="1">
+      <c r="B46" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="24" t="s">
+      <c r="D46" s="19"/>
+      <c r="E46" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="20">
-      <c r="B47" s="22" t="s">
+    <row r="47" spans="2:6" ht="20" hidden="1">
+      <c r="B47" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="24" t="s">
+      <c r="D47" s="19"/>
+      <c r="E47" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="25" t="s">
+      <c r="F47" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="20">
-      <c r="B48" s="22" t="s">
+    <row r="48" spans="2:6" ht="20" hidden="1">
+      <c r="B48" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="20">
-      <c r="B49" s="22" t="s">
+    <row r="49" spans="2:6" ht="20" hidden="1">
+      <c r="B49" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="24" t="s">
+      <c r="D49" s="19"/>
+      <c r="E49" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="40">
-      <c r="B50" s="22" t="s">
+    <row r="50" spans="2:6" ht="40" hidden="1">
+      <c r="B50" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="F50" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="40">
-      <c r="B51" s="22" t="s">
+    <row r="51" spans="2:6" ht="40" hidden="1">
+      <c r="B51" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="E51" s="24" t="s">
+      <c r="E51" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="25" t="s">
+      <c r="F51" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="40">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="E52" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="20">
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="20">
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="24" t="s">
+      <c r="D54" s="19"/>
+      <c r="E54" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F54" s="27"/>
+      <c r="F54" s="20"/>
     </row>
     <row r="55" spans="2:6" ht="20">
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="20">
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="24" t="s">
+      <c r="D56" s="19"/>
+      <c r="E56" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F56" s="27"/>
-    </row>
-    <row r="57" spans="2:6" ht="40">
-      <c r="B57" s="22" t="s">
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="2:6" ht="40" hidden="1">
+      <c r="B57" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="E57" s="24" t="s">
+      <c r="E57" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F57" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="20">
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="24" t="s">
+      <c r="D58" s="19"/>
+      <c r="E58" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F58" s="27"/>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="2:6" ht="20">
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="24" t="s">
+      <c r="D59" s="19"/>
+      <c r="E59" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F59" s="27"/>
-    </row>
-    <row r="60" spans="2:6" ht="40">
-      <c r="B60" s="22" t="s">
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="2:6" ht="40" hidden="1">
+      <c r="B60" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="D60" s="24" t="s">
+      <c r="D60" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="F60" s="25" t="s">
+      <c r="F60" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="20">
-      <c r="B61" s="22" t="s">
+    <row r="61" spans="2:6" ht="20" hidden="1">
+      <c r="B61" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="24" t="s">
+      <c r="D61" s="19"/>
+      <c r="E61" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F61" s="27"/>
-    </row>
-    <row r="62" spans="2:6" ht="20">
-      <c r="B62" s="22" t="s">
+      <c r="F61" s="20"/>
+    </row>
+    <row r="62" spans="2:6" ht="20" hidden="1">
+      <c r="B62" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="24" t="s">
+      <c r="D62" s="19"/>
+      <c r="E62" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F62" s="27"/>
-    </row>
-    <row r="63" spans="2:6" ht="20">
-      <c r="B63" s="22" t="s">
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="2:6" ht="20" hidden="1">
+      <c r="B63" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="24" t="s">
+      <c r="D63" s="19"/>
+      <c r="E63" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F63" s="27"/>
-    </row>
-    <row r="64" spans="2:6" ht="20">
-      <c r="B64" s="22" t="s">
+      <c r="F63" s="20"/>
+    </row>
+    <row r="64" spans="2:6" ht="20" hidden="1">
+      <c r="B64" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="24" t="s">
+      <c r="D64" s="19"/>
+      <c r="E64" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="F64" s="27"/>
+      <c r="F64" s="20"/>
     </row>
     <row r="65" spans="2:6" ht="20">
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="24" t="s">
+      <c r="D65" s="19"/>
+      <c r="E65" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F65" s="27"/>
+      <c r="F65" s="20"/>
     </row>
     <row r="66" spans="2:6" ht="20">
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="24" t="s">
+      <c r="D66" s="19"/>
+      <c r="E66" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="F66" s="27"/>
-    </row>
-    <row r="67" spans="2:6" ht="20">
-      <c r="B67" s="22" t="s">
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="2:6" ht="20" hidden="1">
+      <c r="B67" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="24" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F67" s="27"/>
-    </row>
-    <row r="68" spans="2:6" ht="20">
-      <c r="B68" s="22" t="s">
+      <c r="F67" s="20"/>
+    </row>
+    <row r="68" spans="2:6" ht="20" hidden="1">
+      <c r="B68" s="15" t="s">
         <v>424</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="24" t="s">
+      <c r="D68" s="19"/>
+      <c r="E68" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F68" s="27"/>
-    </row>
-    <row r="69" spans="2:6" ht="20">
-      <c r="B69" s="22" t="s">
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="2:6" ht="20" hidden="1">
+      <c r="B69" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="24" t="s">
+      <c r="D69" s="19"/>
+      <c r="E69" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F69" s="27"/>
-    </row>
-    <row r="70" spans="2:6" ht="60">
-      <c r="B70" s="23" t="s">
+      <c r="F69" s="20"/>
+    </row>
+    <row r="70" spans="2:6" ht="60" hidden="1">
+      <c r="B70" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26" t="s">
+      <c r="D70" s="19"/>
+      <c r="E70" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="F70" s="27"/>
-    </row>
-    <row r="71" spans="2:6" ht="100">
-      <c r="B71" s="23" t="s">
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="2:6" ht="100" hidden="1">
+      <c r="B71" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="24" t="s">
+      <c r="D71" s="19"/>
+      <c r="E71" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F71" s="27"/>
-    </row>
-    <row r="72" spans="2:6" ht="60">
-      <c r="B72" s="23" t="s">
+      <c r="F71" s="20"/>
+    </row>
+    <row r="72" spans="2:6" ht="60" hidden="1">
+      <c r="B72" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26" t="s">
+      <c r="D72" s="19"/>
+      <c r="E72" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="F72" s="27"/>
+      <c r="F72" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F72" xr:uid="{B8B1EE81-84F2-714C-BABB-3F4FFB9E7960}"/>
+  <autoFilter ref="B1:F72" xr:uid="{B8B1EE81-84F2-714C-BABB-3F4FFB9E7960}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="网络"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>

--- a/Linux/01-Linux-基础内容/linux.xlsx
+++ b/Linux/01-Linux-基础内容/linux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/DSWorkspace/600读书写作/_1_Reading&amp;Writing/20220311Linux&amp;Python/Linux/01-Linux-基础内容/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEAB19D-A467-9E44-99CD-B26543E22F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F6FC9-66CF-574E-B23F-DFF5BF817A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25000" windowHeight="28300" activeTab="1" xr2:uid="{5AE4491B-1D83-1143-BF39-EF45F09C8023}"/>
   </bookViews>
